--- a/va_facility_data_2025-02-20/Carl T. Hayden Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Carl%20T.%20Hayden%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Carl T. Hayden Veterans' Administration Medical Center - Facility Data.xlsx"; filename*=UTF-8''Carl%20T.%20Hayden%20Veterans%27%20Administration%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R47f684774303438894be80d9380b00c3"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Ra2ccc96416ab495092ccd5d8da41ff55"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R619e5c87f03a4243ae6080c9775aa3a9"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R0368cf77891b49de96c9bb58ecb8100a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rd8cb437780cd40e396ae9e721a12fa83"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R2af136ea7fed4ffa86281e4b743225cf"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R5726353f05cf4676ab2fb92b9766cfde"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2e487ec436454704b16833b5edf10f33"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1ab054360e214f9c9fd81a30286b4015"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R7d4fcc6a66234ceab51c0be546625891"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0fce27363e834ddab93e9a1d2f266354"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R292b0b50a0c344899a0b4cf74f7eadb7"/>
   </x:sheets>
 </x:workbook>
 </file>
